--- a/Estadisticas/Grafos Regulares.xlsx
+++ b/Estadisticas/Grafos Regulares.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octi\workspace\TP4-ColoreoDeGrafos\Estadisticas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="14115" windowHeight="7995"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="14115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1000y50" sheetId="1" r:id="rId1"/>
@@ -20,22 +25,22 @@
     <t>Estadisticas Grafos Regulares 1000 Nodos y 50% Ady</t>
   </si>
   <si>
-    <t>Cant Colores</t>
+    <t>Matula</t>
   </si>
   <si>
-    <t>Secuencial</t>
+    <t>Cantidad de colores</t>
   </si>
   <si>
-    <t>Powell</t>
+    <t>Secuencial aleatorio</t>
   </si>
   <si>
-    <t>Matula</t>
+    <t>Welsh-Powell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,15 +76,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,14 +96,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -123,7 +132,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Secuencial</c:v>
+                  <c:v>Secuencial aleatorio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -282,6 +291,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0FE-4BD1-8765-D609FCE62F35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -292,7 +306,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Powell</c:v>
+                  <c:v>Welsh-Powell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,6 +465,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0FE-4BD1-8765-D609FCE62F35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -620,6 +639,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F0FE-4BD1-8765-D609FCE62F35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -629,7 +653,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="24631168"/>
         <c:axId val="24633344"/>
@@ -672,7 +695,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -688,9 +710,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -716,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Secuencial</c:v>
+                  <c:v>Secuencial aleatorio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,6 +861,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F86-4129-A3C5-B981A0DC5130}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -849,7 +876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Powell</c:v>
+                  <c:v>Welsh-Powell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -972,6 +999,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F86-4129-A3C5-B981A0DC5130}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1105,6 +1137,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F86-4129-A3C5-B981A0DC5130}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1114,7 +1151,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="33847936"/>
         <c:axId val="33888512"/>
@@ -1157,7 +1193,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1189,7 +1224,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1224,7 +1265,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvPr id="2" name="1 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1243,7 +1290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1285,7 +1332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1318,9 +1365,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1353,6 +1417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1531,349 +1612,358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>252</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>276</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>327</v>
+      </c>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>252</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>328</v>
+      </c>
+      <c r="B7" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>329</v>
+      </c>
+      <c r="B8" s="2">
+        <v>750</v>
+      </c>
+      <c r="C8" s="2">
+        <v>643</v>
+      </c>
+      <c r="D8" s="2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>330</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1476</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1475</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>331</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1878</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1922</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>332</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1803</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1820</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>333</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1441</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1398</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>334</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>335</v>
+      </c>
+      <c r="B14" s="2">
+        <v>648</v>
+      </c>
+      <c r="C14" s="2">
+        <v>667</v>
+      </c>
+      <c r="D14" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>336</v>
+      </c>
+      <c r="B15" s="2">
+        <v>422</v>
+      </c>
+      <c r="C15" s="2">
+        <v>412</v>
+      </c>
+      <c r="D15" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>337</v>
+      </c>
+      <c r="B16" s="2">
+        <v>219</v>
+      </c>
+      <c r="C16" s="2">
+        <v>212</v>
+      </c>
+      <c r="D16" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>338</v>
+      </c>
+      <c r="B17" s="2">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2">
+        <v>129</v>
+      </c>
+      <c r="D17" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>339</v>
+      </c>
+      <c r="B18" s="2">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>340</v>
+      </c>
+      <c r="B19" s="2">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>341</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>342</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>343</v>
+      </c>
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>344</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>345</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>347</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>276</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>327</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>328</v>
-      </c>
-      <c r="B7" s="3">
-        <v>105</v>
-      </c>
-      <c r="C7" s="3">
-        <v>139</v>
-      </c>
-      <c r="D7" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>329</v>
-      </c>
-      <c r="B8" s="3">
-        <v>750</v>
-      </c>
-      <c r="C8" s="3">
-        <v>643</v>
-      </c>
-      <c r="D8" s="3">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>330</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1476</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1475</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>331</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1878</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1922</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>332</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1803</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1820</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>333</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1441</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1398</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>334</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1011</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1059</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>335</v>
-      </c>
-      <c r="B14" s="3">
-        <v>648</v>
-      </c>
-      <c r="C14" s="3">
-        <v>667</v>
-      </c>
-      <c r="D14" s="3">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>336</v>
-      </c>
-      <c r="B15" s="3">
-        <v>422</v>
-      </c>
-      <c r="C15" s="3">
-        <v>412</v>
-      </c>
-      <c r="D15" s="3">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>337</v>
-      </c>
-      <c r="B16" s="3">
-        <v>219</v>
-      </c>
-      <c r="C16" s="3">
-        <v>212</v>
-      </c>
-      <c r="D16" s="3">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>338</v>
-      </c>
-      <c r="B17" s="3">
-        <v>129</v>
-      </c>
-      <c r="C17" s="3">
-        <v>129</v>
-      </c>
-      <c r="D17" s="3">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>339</v>
-      </c>
-      <c r="B18" s="3">
-        <v>66</v>
-      </c>
-      <c r="C18" s="3">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>340</v>
-      </c>
-      <c r="B19" s="3">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>341</v>
-      </c>
-      <c r="B20" s="3">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>342</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>343</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>344</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>345</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>347</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1884,273 +1974,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>500</v>
+      </c>
+      <c r="B4" s="2">
+        <v>272</v>
+      </c>
+      <c r="C4" s="2">
+        <v>266</v>
+      </c>
+      <c r="D4" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>501</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2080</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>502</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2671</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2801</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>503</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2061</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2073</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>504</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1423</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1311</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>505</v>
+      </c>
+      <c r="B9" s="2">
+        <v>819</v>
+      </c>
+      <c r="C9" s="2">
+        <v>765</v>
+      </c>
+      <c r="D9" s="2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>506</v>
+      </c>
+      <c r="B10" s="2">
+        <v>399</v>
+      </c>
+      <c r="C10" s="2">
+        <v>377</v>
+      </c>
+      <c r="D10" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>507</v>
+      </c>
+      <c r="B11" s="2">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2">
+        <v>181</v>
+      </c>
+      <c r="D11" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>508</v>
+      </c>
+      <c r="B12" s="2">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>509</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>510</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>511</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>512</v>
+      </c>
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>500</v>
-      </c>
-      <c r="B4" s="3">
-        <v>272</v>
-      </c>
-      <c r="C4" s="3">
-        <v>266</v>
-      </c>
-      <c r="D4" s="3">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>501</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2027</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2080</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>502</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2671</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>503</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2061</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2073</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>504</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1423</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1311</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>505</v>
-      </c>
-      <c r="B9" s="3">
-        <v>819</v>
-      </c>
-      <c r="C9" s="3">
-        <v>765</v>
-      </c>
-      <c r="D9" s="3">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>506</v>
-      </c>
-      <c r="B10" s="3">
-        <v>399</v>
-      </c>
-      <c r="C10" s="3">
-        <v>377</v>
-      </c>
-      <c r="D10" s="3">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>507</v>
-      </c>
-      <c r="B11" s="3">
-        <v>193</v>
-      </c>
-      <c r="C11" s="3">
-        <v>181</v>
-      </c>
-      <c r="D11" s="3">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>508</v>
-      </c>
-      <c r="B12" s="3">
-        <v>87</v>
-      </c>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>509</v>
-      </c>
-      <c r="B13" s="3">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>510</v>
-      </c>
-      <c r="B14" s="3">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>511</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>512</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>513</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>514</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>624</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Estadisticas/Grafos Regulares.xlsx
+++ b/Estadisticas/Grafos Regulares.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octi\workspace\TP4-ColoreoDeGrafos\Estadisticas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="14115" windowHeight="7995" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="1000y50" sheetId="1" r:id="rId1"/>
     <sheet name="1000y75" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -40,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,10 +77,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,25 +99,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="42"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:style val="42"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -290,8 +274,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F0FE-4BD1-8765-D609FCE62F35}"/>
             </c:ext>
@@ -464,8 +447,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F0FE-4BD1-8765-D609FCE62F35}"/>
             </c:ext>
@@ -638,97 +620,69 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F0FE-4BD1-8765-D609FCE62F35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="24631168"/>
-        <c:axId val="24633344"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="120541184"/>
+        <c:axId val="120542720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24631168"/>
+        <c:axId val="120541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24633344"/>
+        <c:crossAx val="120542720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24633344"/>
+        <c:axId val="120542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1950"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24631168"/>
+        <c:crossAx val="120541184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="142"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="42"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-AR"/>
+  <c:style val="42"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -860,8 +814,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4F86-4129-A3C5-B981A0DC5130}"/>
             </c:ext>
@@ -998,8 +951,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4F86-4129-A3C5-B981A0DC5130}"/>
             </c:ext>
@@ -1136,72 +1088,56 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4F86-4129-A3C5-B981A0DC5130}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="33847936"/>
-        <c:axId val="33888512"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="121301632"/>
+        <c:axId val="121315712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33847936"/>
+        <c:axId val="121301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33888512"/>
+        <c:crossAx val="121315712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33888512"/>
+        <c:axId val="121315712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2850"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33847936"/>
+        <c:crossAx val="121301632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1227,7 +1163,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1204,7 @@
         <xdr:cNvPr id="2" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1332,7 +1268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,27 +1300,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1416,24 +1334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1609,14 +1509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
@@ -1624,22 +1524,22 @@
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>252</v>
       </c>
@@ -1667,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>276</v>
       </c>
@@ -1681,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>327</v>
       </c>
@@ -1695,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>328</v>
       </c>
@@ -1709,7 +1609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>329</v>
       </c>
@@ -1723,7 +1623,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>330</v>
       </c>
@@ -1737,7 +1637,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>331</v>
       </c>
@@ -1751,7 +1651,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>332</v>
       </c>
@@ -1765,7 +1665,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>333</v>
       </c>
@@ -1779,7 +1679,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>334</v>
       </c>
@@ -1793,7 +1693,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>335</v>
       </c>
@@ -1807,7 +1707,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>336</v>
       </c>
@@ -1821,7 +1721,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>337</v>
       </c>
@@ -1835,7 +1735,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>338</v>
       </c>
@@ -1849,7 +1749,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>339</v>
       </c>
@@ -1863,7 +1763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>340</v>
       </c>
@@ -1877,7 +1777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>341</v>
       </c>
@@ -1891,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>342</v>
       </c>
@@ -1905,7 +1805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>343</v>
       </c>
@@ -1919,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>344</v>
       </c>
@@ -1933,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="1" customFormat="1">
       <c r="A24" s="2">
         <v>345</v>
       </c>
@@ -1947,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>347</v>
       </c>
@@ -1971,14 +1871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
@@ -1986,23 +1886,23 @@
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +1917,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>500</v>
       </c>
@@ -2031,7 +1931,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>501</v>
       </c>
@@ -2045,7 +1945,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>502</v>
       </c>
@@ -2059,7 +1959,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>503</v>
       </c>
@@ -2073,7 +1973,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>504</v>
       </c>
@@ -2087,7 +1987,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>505</v>
       </c>
@@ -2101,7 +2001,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>506</v>
       </c>
@@ -2115,7 +2015,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>507</v>
       </c>
@@ -2129,7 +2029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>508</v>
       </c>
@@ -2143,7 +2043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>509</v>
       </c>
@@ -2157,7 +2057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>510</v>
       </c>
@@ -2171,7 +2071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>511</v>
       </c>
@@ -2185,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>512</v>
       </c>
@@ -2199,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>513</v>
       </c>
@@ -2213,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>514</v>
       </c>
@@ -2227,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>624</v>
       </c>
@@ -2239,6 +2139,20 @@
       </c>
       <c r="D19" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20">
+        <f>SUM(B4:B19)</f>
+        <v>10000</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:D20" si="0">SUM(C4:C19)</f>
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
